--- a/fe/public/import_template_strategy.xlsx
+++ b/fe/public/import_template_strategy.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U071182\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u066805\ITHC\Code\Budgetin\fe\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="strategy" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>strategy_name</t>
   </si>
@@ -57,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,12 +65,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,30 +367,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -384,28 +390,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -413,6 +425,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086B0BF0855FEBA4DA16F0097578348E0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="57ad762e78acd6d283c67dff42282626">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5df9460a-bf59-494f-a2ad-2faf4bfa097c" xmlns:ns3="8906ede7-0e30-42a9-92d5-b423d28e995f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1726a201fee8d394a4eb2e9448e66d12" ns2:_="" ns3:_="">
     <xsd:import namespace="5df9460a-bf59-494f-a2ad-2faf4bfa097c"/>
@@ -615,29 +642,38 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE0D989-3A0C-44AA-B994-4D517DD7344B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C49CE2-4138-40EE-8265-720952166D61}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84780FFE-8816-4324-B820-474B8DD9E9EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84780FFE-8816-4324-B820-474B8DD9E9EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24C49CE2-4138-40EE-8265-720952166D61}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBE0D989-3A0C-44AA-B994-4D517DD7344B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="5df9460a-bf59-494f-a2ad-2faf4bfa097c"/>
+    <ds:schemaRef ds:uri="8906ede7-0e30-42a9-92d5-b423d28e995f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>